--- a/рис/лабы/6Mussa_lab_6.xlsx
+++ b/рис/лабы/6Mussa_lab_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C6BD7-54E3-4BCB-BC88-2B66A9FA344B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E03E5-CAD1-4D72-8477-3189AF211669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" xr2:uid="{AB7B6C7D-68D6-46B9-AB9C-F9F4392004EB}"/>
   </bookViews>
@@ -202,16 +202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103161</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -234,7 +234,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="2674620" y="2186940"/>
           <a:ext cx="6781800" cy="2114841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE06565-FD53-42D8-B32C-4389505D83C1}">
   <dimension ref="B13:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
